--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fn1-Itga2b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fn1-Itga2b.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.03890566666666</v>
+        <v>6.240107999999999</v>
       </c>
       <c r="H2">
-        <v>81.11671699999999</v>
+        <v>18.720324</v>
       </c>
       <c r="I2">
-        <v>0.07096188219033728</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="J2">
-        <v>0.07096188219033729</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.104136666666667</v>
+        <v>0.3883076666666667</v>
       </c>
       <c r="N2">
-        <v>3.31241</v>
+        <v>1.164923</v>
       </c>
       <c r="O2">
-        <v>0.2772362398998524</v>
+        <v>0.1188638477168776</v>
       </c>
       <c r="P2">
-        <v>0.2772362398998525</v>
+        <v>0.1188638477168776</v>
       </c>
       <c r="Q2">
-        <v>29.85464717310777</v>
+        <v>2.423081777228</v>
       </c>
       <c r="R2">
-        <v>268.69182455797</v>
+        <v>21.807735995052</v>
       </c>
       <c r="S2">
-        <v>0.01967320539466541</v>
+        <v>0.002058995851605116</v>
       </c>
       <c r="T2">
-        <v>0.01967320539466542</v>
+        <v>0.002058995851605116</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.03890566666666</v>
+        <v>6.240107999999999</v>
       </c>
       <c r="H3">
-        <v>81.11671699999999</v>
+        <v>18.720324</v>
       </c>
       <c r="I3">
-        <v>0.07096188219033728</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="J3">
-        <v>0.07096188219033729</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>6.692959999999999</v>
       </c>
       <c r="O3">
-        <v>0.5601755411317187</v>
+        <v>0.6829215134520935</v>
       </c>
       <c r="P3">
-        <v>0.5601755411317187</v>
+        <v>0.6829215134520935</v>
       </c>
       <c r="Q3">
-        <v>60.3234380235911</v>
+        <v>13.92159774656</v>
       </c>
       <c r="R3">
-        <v>542.9109422123199</v>
+        <v>125.29437971904</v>
       </c>
       <c r="S3">
-        <v>0.03975111075569746</v>
+        <v>0.01182977490783423</v>
       </c>
       <c r="T3">
-        <v>0.03975111075569747</v>
+        <v>0.01182977490783423</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.03890566666666</v>
+        <v>6.240107999999999</v>
       </c>
       <c r="H4">
-        <v>81.11671699999999</v>
+        <v>18.720324</v>
       </c>
       <c r="I4">
-        <v>0.07096188219033728</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="J4">
-        <v>0.07096188219033729</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>1.942599</v>
       </c>
       <c r="O4">
-        <v>0.1625882189684289</v>
+        <v>0.1982146388310289</v>
       </c>
       <c r="P4">
-        <v>0.1625882189684289</v>
+        <v>0.1982146388310289</v>
       </c>
       <c r="Q4">
-        <v>17.50858370305367</v>
+        <v>4.040675853563999</v>
       </c>
       <c r="R4">
-        <v>157.577253327483</v>
+        <v>36.366082682076</v>
       </c>
       <c r="S4">
-        <v>0.01153756603997441</v>
+        <v>0.003433534475954416</v>
       </c>
       <c r="T4">
-        <v>0.01153756603997441</v>
+        <v>0.003433534475954416</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1036.699737</v>
       </c>
       <c r="I5">
-        <v>0.9069174311350353</v>
+        <v>0.9592798330716089</v>
       </c>
       <c r="J5">
-        <v>0.9069174311350354</v>
+        <v>0.9592798330716091</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.104136666666667</v>
+        <v>0.3883076666666667</v>
       </c>
       <c r="N5">
-        <v>3.31241</v>
+        <v>1.164923</v>
       </c>
       <c r="O5">
-        <v>0.2772362398998524</v>
+        <v>0.1188638477168776</v>
       </c>
       <c r="P5">
-        <v>0.2772362398998525</v>
+        <v>0.1188638477168776</v>
       </c>
       <c r="Q5">
-        <v>381.5527306484633</v>
+        <v>134.1861519694723</v>
       </c>
       <c r="R5">
-        <v>3433.97457583617</v>
+        <v>1207.675367725251</v>
       </c>
       <c r="S5">
-        <v>0.2514303785075105</v>
+        <v>0.1140236919960955</v>
       </c>
       <c r="T5">
-        <v>0.2514303785075106</v>
+        <v>0.1140236919960955</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1036.699737</v>
       </c>
       <c r="I6">
-        <v>0.9069174311350353</v>
+        <v>0.9592798330716089</v>
       </c>
       <c r="J6">
-        <v>0.9069174311350354</v>
+        <v>0.9592798330716091</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>6.692959999999999</v>
       </c>
       <c r="O6">
-        <v>0.5601755411317187</v>
+        <v>0.6829215134520935</v>
       </c>
       <c r="P6">
-        <v>0.5601755411317187</v>
+        <v>0.6829215134520935</v>
       </c>
       <c r="Q6">
         <v>770.9544301946132</v>
@@ -818,10 +818,10 @@
         <v>6938.589871751518</v>
       </c>
       <c r="S6">
-        <v>0.5080329627478567</v>
+        <v>0.6551128354253348</v>
       </c>
       <c r="T6">
-        <v>0.5080329627478567</v>
+        <v>0.6551128354253349</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1036.699737</v>
       </c>
       <c r="I7">
-        <v>0.9069174311350353</v>
+        <v>0.9592798330716089</v>
       </c>
       <c r="J7">
-        <v>0.9069174311350354</v>
+        <v>0.9592798330716091</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>1.942599</v>
       </c>
       <c r="O7">
-        <v>0.1625882189684289</v>
+        <v>0.1982146388310289</v>
       </c>
       <c r="P7">
-        <v>0.1625882189684289</v>
+        <v>0.1982146388310289</v>
       </c>
       <c r="Q7">
         <v>223.765763599607</v>
@@ -880,10 +880,10 @@
         <v>2013.891872396463</v>
       </c>
       <c r="S7">
-        <v>0.1474540898796681</v>
+        <v>0.1901433056501787</v>
       </c>
       <c r="T7">
-        <v>0.1474540898796682</v>
+        <v>0.1901433056501787</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.428738666666668</v>
+        <v>8.428738666666666</v>
       </c>
       <c r="H8">
         <v>25.286216</v>
       </c>
       <c r="I8">
-        <v>0.0221206866746274</v>
+        <v>0.02339786169299727</v>
       </c>
       <c r="J8">
-        <v>0.02212068667462741</v>
+        <v>0.02339786169299728</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.104136666666667</v>
+        <v>0.3883076666666667</v>
       </c>
       <c r="N8">
-        <v>3.31241</v>
+        <v>1.164923</v>
       </c>
       <c r="O8">
-        <v>0.2772362398998524</v>
+        <v>0.1188638477168776</v>
       </c>
       <c r="P8">
-        <v>0.2772362398998525</v>
+        <v>0.1188638477168776</v>
       </c>
       <c r="Q8">
-        <v>9.306479415617778</v>
+        <v>3.272943844596444</v>
       </c>
       <c r="R8">
-        <v>83.75831474056001</v>
+        <v>29.456494601368</v>
       </c>
       <c r="S8">
-        <v>0.00613265599767647</v>
+        <v>0.002781159869176992</v>
       </c>
       <c r="T8">
-        <v>0.006132655997676473</v>
+        <v>0.002781159869176992</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.428738666666668</v>
+        <v>8.428738666666666</v>
       </c>
       <c r="H9">
         <v>25.286216</v>
       </c>
       <c r="I9">
-        <v>0.0221206866746274</v>
+        <v>0.02339786169299727</v>
       </c>
       <c r="J9">
-        <v>0.02212068667462741</v>
+        <v>0.02339786169299728</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>6.692959999999999</v>
       </c>
       <c r="O9">
-        <v>0.5601755411317187</v>
+        <v>0.6829215134520935</v>
       </c>
       <c r="P9">
-        <v>0.5601755411317187</v>
+        <v>0.6829215134520935</v>
       </c>
       <c r="Q9">
         <v>18.80440358215111</v>
@@ -1004,10 +1004,10 @@
         <v>169.23963223936</v>
       </c>
       <c r="S9">
-        <v>0.0123914676281646</v>
+        <v>0.01597890311892446</v>
       </c>
       <c r="T9">
-        <v>0.01239146762816461</v>
+        <v>0.01597890311892446</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.428738666666668</v>
+        <v>8.428738666666666</v>
       </c>
       <c r="H10">
         <v>25.286216</v>
       </c>
       <c r="I10">
-        <v>0.0221206866746274</v>
+        <v>0.02339786169299727</v>
       </c>
       <c r="J10">
-        <v>0.02212068667462741</v>
+        <v>0.02339786169299728</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>1.942599</v>
       </c>
       <c r="O10">
-        <v>0.1625882189684289</v>
+        <v>0.1982146388310289</v>
       </c>
       <c r="P10">
-        <v>0.1625882189684289</v>
+        <v>0.1982146388310289</v>
       </c>
       <c r="Q10">
-        <v>5.457886435042668</v>
+        <v>5.457886435042666</v>
       </c>
       <c r="R10">
         <v>49.120977915384</v>
       </c>
       <c r="S10">
-        <v>0.003596563048786326</v>
+        <v>0.004637798704895821</v>
       </c>
       <c r="T10">
-        <v>0.003596563048786328</v>
+        <v>0.004637798704895823</v>
       </c>
     </row>
   </sheetData>
